--- a/tests/data/borehole/borehole_survey.xlsx
+++ b/tests/data/borehole/borehole_survey.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20366"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20395"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B925842-7739-4594-90B0-7DC4B629BF48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{800AEEBB-C8E3-4040-9611-1302A7DB6F0E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -77,7 +77,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -358,10 +358,10 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D33"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -388,7 +388,7 @@
         <v>165</v>
       </c>
       <c r="D2">
-        <v>-90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -402,7 +402,7 @@
         <v>191.4</v>
       </c>
       <c r="D3">
-        <v>-89.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -416,7 +416,7 @@
         <v>216</v>
       </c>
       <c r="D4">
-        <v>-89.7</v>
+        <v>0.29999999999999716</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -430,7 +430,7 @@
         <v>231.4</v>
       </c>
       <c r="D5">
-        <v>-89</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -444,7 +444,7 @@
         <v>226.3</v>
       </c>
       <c r="D6">
-        <v>-89.2</v>
+        <v>0.79999999999999716</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -458,7 +458,7 @@
         <v>225.8</v>
       </c>
       <c r="D7">
-        <v>-88.7</v>
+        <v>1.2999999999999972</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -472,7 +472,7 @@
         <v>231.7</v>
       </c>
       <c r="D8">
-        <v>-88.8</v>
+        <v>1.2000000000000028</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -486,7 +486,7 @@
         <v>246.3</v>
       </c>
       <c r="D9">
-        <v>-88</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -500,7 +500,7 @@
         <v>242.4</v>
       </c>
       <c r="D10">
-        <v>-87.9</v>
+        <v>2.0999999999999943</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -514,7 +514,7 @@
         <v>226.7</v>
       </c>
       <c r="D11">
-        <v>-87.2</v>
+        <v>2.7999999999999972</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -528,7 +528,7 @@
         <v>222.8</v>
       </c>
       <c r="D12">
-        <v>-85.4</v>
+        <v>4.5999999999999943</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -542,7 +542,7 @@
         <v>219.2</v>
       </c>
       <c r="D13">
-        <v>-84.1</v>
+        <v>5.9000000000000057</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -556,7 +556,7 @@
         <v>218.1</v>
       </c>
       <c r="D14">
-        <v>-83.9</v>
+        <v>6.0999999999999943</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -570,7 +570,7 @@
         <v>221.1</v>
       </c>
       <c r="D15">
-        <v>-83.6</v>
+        <v>6.4000000000000057</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -584,7 +584,7 @@
         <v>222.9</v>
       </c>
       <c r="D16">
-        <v>-83.4</v>
+        <v>6.5999999999999943</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -598,7 +598,7 @@
         <v>222.3</v>
       </c>
       <c r="D17">
-        <v>-83</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -612,7 +612,7 @@
         <v>221.5</v>
       </c>
       <c r="D18">
-        <v>-81.599999999999994</v>
+        <v>8.4000000000000057</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -626,7 +626,7 @@
         <v>222.4</v>
       </c>
       <c r="D19">
-        <v>-80.599999999999994</v>
+        <v>9.4000000000000057</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -640,7 +640,7 @@
         <v>221.9</v>
       </c>
       <c r="D20">
-        <v>-80.099999999999994</v>
+        <v>9.9000000000000057</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -654,7 +654,7 @@
         <v>180</v>
       </c>
       <c r="D21">
-        <v>-75</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -668,7 +668,7 @@
         <v>184.8</v>
       </c>
       <c r="D22">
-        <v>-76.400000000000006</v>
+        <v>13.599999999999994</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -682,7 +682,7 @@
         <v>184.1</v>
       </c>
       <c r="D23">
-        <v>-76.3</v>
+        <v>13.700000000000003</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -696,7 +696,7 @@
         <v>184.9</v>
       </c>
       <c r="D24">
-        <v>-76.400000000000006</v>
+        <v>13.599999999999994</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -710,7 +710,7 @@
         <v>184.6</v>
       </c>
       <c r="D25">
-        <v>-76.5</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -724,7 +724,7 @@
         <v>186.4</v>
       </c>
       <c r="D26">
-        <v>-78.099999999999994</v>
+        <v>11.900000000000006</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -738,7 +738,7 @@
         <v>188.5</v>
       </c>
       <c r="D27">
-        <v>-77.900000000000006</v>
+        <v>12.099999999999994</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -752,7 +752,7 @@
         <v>189.6</v>
       </c>
       <c r="D28">
-        <v>-77.8</v>
+        <v>12.200000000000003</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -766,7 +766,7 @@
         <v>191.8</v>
       </c>
       <c r="D29">
-        <v>-77.599999999999994</v>
+        <v>12.400000000000006</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -780,7 +780,7 @@
         <v>192.5</v>
       </c>
       <c r="D30">
-        <v>-76.7</v>
+        <v>13.299999999999997</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -794,7 +794,7 @@
         <v>190.7</v>
       </c>
       <c r="D31">
-        <v>-75.8</v>
+        <v>14.200000000000003</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -808,7 +808,7 @@
         <v>191.4</v>
       </c>
       <c r="D32">
-        <v>-75.400000000000006</v>
+        <v>14.599999999999994</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -822,7 +822,7 @@
         <v>191.4</v>
       </c>
       <c r="D33">
-        <v>-75.400000000000006</v>
+        <v>14.599999999999994</v>
       </c>
     </row>
   </sheetData>

--- a/tests/data/borehole/borehole_survey.xlsx
+++ b/tests/data/borehole/borehole_survey.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20395"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20366"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{800AEEBB-C8E3-4040-9611-1302A7DB6F0E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B925842-7739-4594-90B0-7DC4B629BF48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -77,7 +77,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -358,10 +358,10 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection sqref="A1:D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -388,7 +388,7 @@
         <v>165</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -402,7 +402,7 @@
         <v>191.4</v>
       </c>
       <c r="D3">
-        <v>0.5</v>
+        <v>-89.5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -416,7 +416,7 @@
         <v>216</v>
       </c>
       <c r="D4">
-        <v>0.29999999999999716</v>
+        <v>-89.7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -430,7 +430,7 @@
         <v>231.4</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>-89</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -444,7 +444,7 @@
         <v>226.3</v>
       </c>
       <c r="D6">
-        <v>0.79999999999999716</v>
+        <v>-89.2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -458,7 +458,7 @@
         <v>225.8</v>
       </c>
       <c r="D7">
-        <v>1.2999999999999972</v>
+        <v>-88.7</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -472,7 +472,7 @@
         <v>231.7</v>
       </c>
       <c r="D8">
-        <v>1.2000000000000028</v>
+        <v>-88.8</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -486,7 +486,7 @@
         <v>246.3</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>-88</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -500,7 +500,7 @@
         <v>242.4</v>
       </c>
       <c r="D10">
-        <v>2.0999999999999943</v>
+        <v>-87.9</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -514,7 +514,7 @@
         <v>226.7</v>
       </c>
       <c r="D11">
-        <v>2.7999999999999972</v>
+        <v>-87.2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -528,7 +528,7 @@
         <v>222.8</v>
       </c>
       <c r="D12">
-        <v>4.5999999999999943</v>
+        <v>-85.4</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -542,7 +542,7 @@
         <v>219.2</v>
       </c>
       <c r="D13">
-        <v>5.9000000000000057</v>
+        <v>-84.1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -556,7 +556,7 @@
         <v>218.1</v>
       </c>
       <c r="D14">
-        <v>6.0999999999999943</v>
+        <v>-83.9</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -570,7 +570,7 @@
         <v>221.1</v>
       </c>
       <c r="D15">
-        <v>6.4000000000000057</v>
+        <v>-83.6</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -584,7 +584,7 @@
         <v>222.9</v>
       </c>
       <c r="D16">
-        <v>6.5999999999999943</v>
+        <v>-83.4</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -598,7 +598,7 @@
         <v>222.3</v>
       </c>
       <c r="D17">
-        <v>7</v>
+        <v>-83</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -612,7 +612,7 @@
         <v>221.5</v>
       </c>
       <c r="D18">
-        <v>8.4000000000000057</v>
+        <v>-81.599999999999994</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -626,7 +626,7 @@
         <v>222.4</v>
       </c>
       <c r="D19">
-        <v>9.4000000000000057</v>
+        <v>-80.599999999999994</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -640,7 +640,7 @@
         <v>221.9</v>
       </c>
       <c r="D20">
-        <v>9.9000000000000057</v>
+        <v>-80.099999999999994</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -654,7 +654,7 @@
         <v>180</v>
       </c>
       <c r="D21">
-        <v>15</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -668,7 +668,7 @@
         <v>184.8</v>
       </c>
       <c r="D22">
-        <v>13.599999999999994</v>
+        <v>-76.400000000000006</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -682,7 +682,7 @@
         <v>184.1</v>
       </c>
       <c r="D23">
-        <v>13.700000000000003</v>
+        <v>-76.3</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -696,7 +696,7 @@
         <v>184.9</v>
       </c>
       <c r="D24">
-        <v>13.599999999999994</v>
+        <v>-76.400000000000006</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -710,7 +710,7 @@
         <v>184.6</v>
       </c>
       <c r="D25">
-        <v>13.5</v>
+        <v>-76.5</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -724,7 +724,7 @@
         <v>186.4</v>
       </c>
       <c r="D26">
-        <v>11.900000000000006</v>
+        <v>-78.099999999999994</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -738,7 +738,7 @@
         <v>188.5</v>
       </c>
       <c r="D27">
-        <v>12.099999999999994</v>
+        <v>-77.900000000000006</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -752,7 +752,7 @@
         <v>189.6</v>
       </c>
       <c r="D28">
-        <v>12.200000000000003</v>
+        <v>-77.8</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -766,7 +766,7 @@
         <v>191.8</v>
       </c>
       <c r="D29">
-        <v>12.400000000000006</v>
+        <v>-77.599999999999994</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -780,7 +780,7 @@
         <v>192.5</v>
       </c>
       <c r="D30">
-        <v>13.299999999999997</v>
+        <v>-76.7</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -794,7 +794,7 @@
         <v>190.7</v>
       </c>
       <c r="D31">
-        <v>14.200000000000003</v>
+        <v>-75.8</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -808,7 +808,7 @@
         <v>191.4</v>
       </c>
       <c r="D32">
-        <v>14.599999999999994</v>
+        <v>-75.400000000000006</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -822,7 +822,7 @@
         <v>191.4</v>
       </c>
       <c r="D33">
-        <v>14.599999999999994</v>
+        <v>-75.400000000000006</v>
       </c>
     </row>
   </sheetData>
